--- a/KTLTHDT_ProjectPlan_Nhom18.xlsx
+++ b/KTLTHDT_ProjectPlan_Nhom18.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Project Plan" sheetId="1" r:id="rId4"/>
+    <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Nhóm 18</t>
   </si>
@@ -35,6 +38,9 @@
   </si>
   <si>
     <t>Dương Mẫn Nhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Đề tài: Xây dựng website quản lý bán sách</t>
@@ -154,45 +160,208 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d.m"/>
-    <numFmt numFmtId="165" formatCode="d.m.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d\.m"/>
+    <numFmt numFmtId="179" formatCode="d\.m\.yyyy"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="25">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -212,9 +381,201 @@
         <bgColor rgb="FFFDE9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -228,71 +589,562 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -482,24 +1334,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.5"/>
-    <col customWidth="1" min="2" max="2" width="32.5"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +1369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="4:5">
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
@@ -521,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="4:5">
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
@@ -529,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -537,13 +1393,16 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -552,35 +1411,35 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -588,64 +1447,64 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="11">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="11">
-        <v>44958.0</v>
+        <v>44958</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="11">
-        <v>44986.0</v>
+        <v>44986</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="11">
-        <v>45017.0</v>
+        <v>45017</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13">
+        <v>21</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -653,129 +1512,129 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="11">
-        <v>44928.0</v>
+        <v>44928</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="11">
-        <v>44959.0</v>
+        <v>44959</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14">
-        <v>36924.0</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="13">
+        <v>36924</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14">
-        <v>37289.0</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="13">
+        <v>37289</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="14">
-        <v>37654.0</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="13">
+        <v>37654</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19">
+        <v>27</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="11">
-        <v>44987.0</v>
+        <v>44987</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="14">
-        <v>36952.0</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="13">
+        <v>36952</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="14">
-        <v>37317.0</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="13">
+        <v>37317</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14">
-        <v>37682.0</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="13">
+        <v>37682</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23">
+        <v>31</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -783,116 +1642,116 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="11">
-        <v>44929.0</v>
+        <v>44929</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25">
+        <v>33</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="11">
-        <v>44960.0</v>
+        <v>44960</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="11">
-        <v>44988.0</v>
+        <v>44988</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27">
+        <v>34</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="11">
-        <v>45019.0</v>
+        <v>45019</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28">
+        <v>35</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="11">
-        <v>45049.0</v>
+        <v>45049</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29">
+        <v>36</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="11">
-        <v>45080.0</v>
+        <v>45080</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30">
+        <v>37</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="11">
-        <v>45110.0</v>
+        <v>45110</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="11">
-        <v>45141.0</v>
+        <v>45141</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32">
+        <v>39</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -900,51 +1759,51 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="11">
-        <v>44930.0</v>
+        <v>44930</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34">
+        <v>41</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="11">
-        <v>44961.0</v>
+        <v>44961</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35">
+        <v>42</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="11">
-        <v>44989.0</v>
+        <v>44989</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36">
+        <v>43</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -952,41 +1811,42 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37">
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="11">
-        <v>44931.0</v>
+        <v>44931</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38">
+        <v>45</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="11">
-        <v>44962.0</v>
+        <v>44962</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A1:B3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/KTLTHDT_ProjectPlan_Nhom18.xlsx
+++ b/KTLTHDT_ProjectPlan_Nhom18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Nhóm 18</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Dương Mẫn Nhi</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Đề tài: Xây dựng website quản lý bán sách</t>
   </si>
   <si>
@@ -73,10 +70,19 @@
     <t>Vẽ sơ đồ tổng quan hệ thống</t>
   </si>
   <si>
+    <t>Thúy Hằng</t>
+  </si>
+  <si>
     <t>Vẽ sơ đồ use case</t>
   </si>
   <si>
+    <t>Ngọc Bích</t>
+  </si>
+  <si>
     <t>Xây dựng bản đặc tả yêu cầu hệ thống</t>
+  </si>
+  <si>
+    <t>Mẫn Nhi</t>
   </si>
   <si>
     <t>Mô tả các quy trình nghiệp vụ</t>
@@ -1343,16 +1349,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="39.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -1385,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1393,13 +1399,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
@@ -1413,25 +1416,25 @@
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -1439,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1452,11 +1455,13 @@
         <v>44927</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
@@ -1469,7 +1474,9 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
@@ -1478,11 +1485,13 @@
         <v>44986</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
@@ -1491,11 +1500,13 @@
         <v>45017</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
@@ -1504,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1517,7 +1528,7 @@
         <v>44928</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1530,7 +1541,7 @@
         <v>44959</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1543,7 +1554,7 @@
         <v>36924</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1556,7 +1567,7 @@
         <v>37289</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1569,7 +1580,7 @@
         <v>37654</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1582,7 +1593,7 @@
         <v>44987</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1595,7 +1606,7 @@
         <v>36952</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1608,7 +1619,7 @@
         <v>37317</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1621,7 +1632,7 @@
         <v>37682</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1634,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1647,7 +1658,7 @@
         <v>44929</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1660,7 +1671,7 @@
         <v>44960</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1673,7 +1684,7 @@
         <v>44988</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1686,7 +1697,7 @@
         <v>45019</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -1699,7 +1710,7 @@
         <v>45049</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -1712,7 +1723,7 @@
         <v>45080</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -1725,7 +1736,7 @@
         <v>45110</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -1738,7 +1749,7 @@
         <v>45141</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -1751,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1764,7 +1775,7 @@
         <v>44930</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -1777,7 +1788,7 @@
         <v>44961</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -1790,7 +1801,7 @@
         <v>44989</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -1803,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1816,7 +1827,7 @@
         <v>44931</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -1829,7 +1840,7 @@
         <v>44962</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>

--- a/KTLTHDT_ProjectPlan_Nhom18.xlsx
+++ b/KTLTHDT_ProjectPlan_Nhom18.xlsx
@@ -70,19 +70,19 @@
     <t>Vẽ sơ đồ tổng quan hệ thống</t>
   </si>
   <si>
-    <t>Thúy Hằng</t>
+    <t>Hằng</t>
   </si>
   <si>
     <t>Vẽ sơ đồ use case</t>
   </si>
   <si>
-    <t>Ngọc Bích</t>
+    <t>Bích</t>
   </si>
   <si>
     <t>Xây dựng bản đặc tả yêu cầu hệ thống</t>
   </si>
   <si>
-    <t>Mẫn Nhi</t>
+    <t>Nhi</t>
   </si>
   <si>
     <t>Mô tả các quy trình nghiệp vụ</t>
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>

--- a/KTLTHDT_ProjectPlan_Nhom18.xlsx
+++ b/KTLTHDT_ProjectPlan_Nhom18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTLTHDT\BookStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C28A1B6-5763-4306-89D0-9EEECA955491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA4D503-B973-42A6-946C-1C996440FAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Nhóm 18</t>
   </si>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">Bích </t>
   </si>
   <si>
-    <t>Cả nhóm</t>
+    <t>Nhi, Bích</t>
   </si>
 </sst>
 </file>
@@ -193,8 +193,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="d\.m"/>
-    <numFmt numFmtId="167" formatCode="d\.m\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\.m"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -209,27 +209,27 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -312,13 +312,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -329,7 +330,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -774,47 +774,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -826,15 +826,15 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="11"/>
@@ -978,9 +978,7 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
@@ -993,8 +991,8 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="17" t="s">
-        <v>50</v>
+      <c r="E16" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1008,8 +1006,8 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="17" t="s">
-        <v>50</v>
+      <c r="E17" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1023,7 +1021,7 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="11"/>
@@ -1038,9 +1036,7 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
@@ -1083,7 +1079,7 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="11"/>
